--- a/doc/formal_language-new.xlsx
+++ b/doc/formal_language-new.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823F6C1F-90FD-4B4B-801A-0236C2F6B9BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED5A74B-E340-4002-95A7-20424C15B338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="606" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1788,7 +1788,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1892,17 +1892,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2200,12 +2197,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
     </row>
     <row r="2" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -2250,12 +2247,12 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
     </row>
     <row r="8" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -2378,12 +2375,12 @@
       <c r="D16" s="3"/>
     </row>
     <row r="19" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
@@ -2462,12 +2459,12 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="35" t="s">
+      <c r="A28" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
@@ -2720,12 +2717,12 @@
       <c r="B49" s="6"/>
     </row>
     <row r="50" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A50" s="35" t="s">
+      <c r="A50" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B50" s="35"/>
-      <c r="C50" s="35"/>
-      <c r="D50" s="35"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="36"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
@@ -2924,12 +2921,12 @@
       </c>
     </row>
     <row r="67" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A67" s="35" t="s">
+      <c r="A67" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="B67" s="35"/>
-      <c r="C67" s="35"/>
-      <c r="D67" s="35"/>
+      <c r="B67" s="36"/>
+      <c r="C67" s="36"/>
+      <c r="D67" s="36"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
@@ -2992,8 +2989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62602098-5D29-4DB6-92C7-0F20F150EACE}">
   <dimension ref="A1:XFA83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54:XFD54"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.2"/>
@@ -7583,7 +7580,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="37">
+      <c r="A36" s="35">
         <v>35</v>
       </c>
       <c r="B36" s="25" t="s">
@@ -7597,7 +7594,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="37">
+      <c r="A37" s="35">
         <v>36</v>
       </c>
       <c r="B37" s="25" t="s">
@@ -7611,7 +7608,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="37">
+      <c r="A38" s="35">
         <v>37</v>
       </c>
       <c r="B38" s="25" t="s">
@@ -7625,7 +7622,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="37">
+      <c r="A39" s="35">
         <v>38</v>
       </c>
       <c r="B39" s="25" t="s">
@@ -7653,7 +7650,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="37">
+      <c r="A41" s="35">
         <v>40</v>
       </c>
       <c r="B41" s="25" t="s">
@@ -7667,7 +7664,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="37">
+      <c r="A42" s="35">
         <v>41</v>
       </c>
       <c r="B42" s="25" t="s">
@@ -7681,7 +7678,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="37">
+      <c r="A43" s="35">
         <v>42</v>
       </c>
       <c r="B43" s="25" t="s">
@@ -7695,7 +7692,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="37">
+      <c r="A44" s="35">
         <v>43</v>
       </c>
       <c r="B44" s="25" t="s">
@@ -7709,7 +7706,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="37">
+      <c r="A45" s="35">
         <v>44</v>
       </c>
       <c r="B45" s="25" t="s">
@@ -7723,7 +7720,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="37">
+      <c r="A46" s="35">
         <v>45</v>
       </c>
       <c r="B46" s="25" t="s">
@@ -7737,7 +7734,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="37">
+      <c r="A47" s="35">
         <v>46</v>
       </c>
       <c r="B47" s="25" t="s">
@@ -7751,7 +7748,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="37">
+      <c r="A48" s="35">
         <v>47</v>
       </c>
       <c r="B48" s="25" t="s">
@@ -7765,7 +7762,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="37">
+      <c r="A49" s="35">
         <v>48</v>
       </c>
       <c r="B49" s="25" t="s">
@@ -7779,7 +7776,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="37">
+      <c r="A50" s="35">
         <v>49</v>
       </c>
       <c r="B50" s="25" t="s">
@@ -7967,7 +7964,7 @@
       <c r="B63" s="25" t="s">
         <v>395</v>
       </c>
-      <c r="C63" s="38" t="s">
+      <c r="C63" s="24" t="s">
         <v>188</v>
       </c>
       <c r="D63" s="26" t="s">
@@ -7981,7 +7978,7 @@
       <c r="B64" s="25" t="s">
         <v>396</v>
       </c>
-      <c r="C64" s="38" t="s">
+      <c r="C64" s="24" t="s">
         <v>188</v>
       </c>
       <c r="D64" s="26" t="s">
@@ -7995,7 +7992,7 @@
       <c r="B65" s="25" t="s">
         <v>397</v>
       </c>
-      <c r="C65" s="38" t="s">
+      <c r="C65" s="24" t="s">
         <v>188</v>
       </c>
       <c r="D65" s="26" t="s">
@@ -8009,7 +8006,7 @@
       <c r="B66" s="25" t="s">
         <v>398</v>
       </c>
-      <c r="C66" s="38" t="s">
+      <c r="C66" s="24" t="s">
         <v>189</v>
       </c>
       <c r="D66" s="26" t="s">
@@ -8023,7 +8020,7 @@
       <c r="B67" s="25" t="s">
         <v>399</v>
       </c>
-      <c r="C67" s="38" t="s">
+      <c r="C67" s="24" t="s">
         <v>189</v>
       </c>
       <c r="D67" s="26" t="s">
@@ -8037,7 +8034,7 @@
       <c r="B68" s="25" t="s">
         <v>400</v>
       </c>
-      <c r="C68" s="38" t="s">
+      <c r="C68" s="24" t="s">
         <v>189</v>
       </c>
       <c r="D68" s="26" t="s">
@@ -8051,7 +8048,7 @@
       <c r="B69" s="25" t="s">
         <v>401</v>
       </c>
-      <c r="C69" s="38" t="s">
+      <c r="C69" s="24" t="s">
         <v>189</v>
       </c>
       <c r="D69" s="26" t="s">
@@ -8065,7 +8062,7 @@
       <c r="B70" s="25" t="s">
         <v>402</v>
       </c>
-      <c r="C70" s="38" t="s">
+      <c r="C70" s="24" t="s">
         <v>189</v>
       </c>
       <c r="D70" s="26" t="s">
@@ -8079,7 +8076,7 @@
       <c r="B71" s="25" t="s">
         <v>403</v>
       </c>
-      <c r="C71" s="38" t="s">
+      <c r="C71" s="24" t="s">
         <v>190</v>
       </c>
       <c r="D71" s="26" t="s">
@@ -8093,7 +8090,7 @@
       <c r="B72" s="25" t="s">
         <v>404</v>
       </c>
-      <c r="C72" s="38" t="s">
+      <c r="C72" s="24" t="s">
         <v>190</v>
       </c>
       <c r="D72" s="26" t="s">
@@ -8107,7 +8104,7 @@
       <c r="B73" s="25" t="s">
         <v>405</v>
       </c>
-      <c r="C73" s="38" t="s">
+      <c r="C73" s="24" t="s">
         <v>190</v>
       </c>
       <c r="D73" s="26" t="s">
@@ -8121,7 +8118,7 @@
       <c r="B74" s="25" t="s">
         <v>406</v>
       </c>
-      <c r="C74" s="38" t="s">
+      <c r="C74" s="24" t="s">
         <v>190</v>
       </c>
       <c r="D74" s="26" t="s">
@@ -8135,7 +8132,7 @@
       <c r="B75" s="25" t="s">
         <v>407</v>
       </c>
-      <c r="C75" s="38" t="s">
+      <c r="C75" s="24" t="s">
         <v>191</v>
       </c>
       <c r="D75" s="26" t="s">
@@ -8149,7 +8146,7 @@
       <c r="B76" s="25" t="s">
         <v>408</v>
       </c>
-      <c r="C76" s="38" t="s">
+      <c r="C76" s="24" t="s">
         <v>191</v>
       </c>
       <c r="D76" s="26" t="s">
@@ -8163,7 +8160,7 @@
       <c r="B77" s="25" t="s">
         <v>409</v>
       </c>
-      <c r="C77" s="38" t="s">
+      <c r="C77" s="24" t="s">
         <v>191</v>
       </c>
       <c r="D77" s="26" t="s">
@@ -8283,12 +8280,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
       <c r="F1" s="10" t="s">
         <v>35</v>
       </c>
